--- a/DR_Direction/BP_Budget Previsionnel/BH_Budget_H_Homme/Budget h_homme.xlsx
+++ b/DR_Direction/BP_Budget Previsionnel/BH_Budget_H_Homme/Budget h_homme.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB663371-402A-49C9-9C4A-EA4A7042CD4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD04F535-AD9B-4FD0-855F-CE74BD5BDAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Nombre de semaine</t>
   </si>
@@ -99,6 +98,15 @@
   </si>
   <si>
     <t>Budget h.h</t>
+  </si>
+  <si>
+    <t>Invictus</t>
+  </si>
+  <si>
+    <t>Comm &amp; Comm</t>
+  </si>
+  <si>
+    <t>Motorisation électrique</t>
   </si>
 </sst>
 </file>
@@ -148,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +180,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,6 +202,1036 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Heures hommes cumulées</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Borne inf</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$B$10:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$10:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5660</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B1B-4984-AB9B-EF14BE02C9FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Borne sup</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$10:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8810</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14870</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B1B-4984-AB9B-EF14BE02C9FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="203139664"/>
+        <c:axId val="199966416"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="203139664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199966416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="199966416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203139664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6361E1-8C0E-43F5-B2C1-18FCCC038683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,17 +1512,30 @@
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -492,12 +1550,12 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -509,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
@@ -517,13 +1575,25 @@
       <c r="I4" s="5">
         <v>8</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -535,16 +1605,28 @@
         <v>16</v>
       </c>
       <c r="G5" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="5">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -559,7 +1641,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -580,13 +1662,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43587</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -602,238 +1680,233 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43587</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>43614</v>
       </c>
-      <c r="C10">
-        <f>WEEKNUM(B10)-WEEKNUM(B9)</f>
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <f>B$5*D$5*C10</f>
-        <v>480</v>
-      </c>
-      <c r="E10">
-        <f>D10</f>
-        <v>480</v>
-      </c>
-      <c r="F10">
-        <f>G$5*I$5*C10</f>
-        <v>800</v>
-      </c>
-      <c r="G10">
-        <f>F10</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43643</v>
-      </c>
       <c r="C11">
-        <f t="shared" ref="C11:C19" si="0">WEEKNUM(B11)-WEEKNUM(B10)</f>
+        <f>WEEKNUM(B11)-WEEKNUM(B10)</f>
         <v>4</v>
       </c>
       <c r="D11">
         <f>B$5*D$5*C11</f>
-        <v>480</v>
+        <v>608</v>
       </c>
       <c r="E11">
-        <f>E10+D11</f>
-        <v>960</v>
+        <f>D11</f>
+        <v>608</v>
       </c>
       <c r="F11">
         <f>G$5*I$5*C11</f>
-        <v>800</v>
+        <v>912</v>
       </c>
       <c r="G11">
-        <f>G10+F11</f>
-        <v>1600</v>
+        <f>F11</f>
+        <v>912</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3">
-        <v>43729</v>
+        <v>43643</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="C12:C20" si="0">WEEKNUM(B12)-WEEKNUM(B11)</f>
+        <v>4</v>
       </c>
       <c r="D12">
         <f>B$5*D$5*C12</f>
-        <v>1440</v>
+        <v>608</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E19" si="1">E11+D12</f>
-        <v>2400</v>
+        <f>E11+D12</f>
+        <v>1216</v>
       </c>
       <c r="F12">
         <f>G$5*I$5*C12</f>
-        <v>2400</v>
+        <v>912</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G19" si="2">G11+F12</f>
-        <v>4000</v>
+        <f>G11+F12</f>
+        <v>1824</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3">
-        <v>43740</v>
+        <v>43736</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D19" si="3">(B$4*D$4+B$5*D$5)*C13</f>
-        <v>480</v>
+        <f>B$5*D$5*C13</f>
+        <v>1976</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>2880</v>
+        <f t="shared" ref="E13:E20" si="1">E12+D13</f>
+        <v>3192</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F19" si="4">(G$4*I$4+G$5*I$5)*C13</f>
-        <v>800</v>
+        <f>G$5*I$5*C13</f>
+        <v>2964</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>4800</v>
+        <f t="shared" ref="G13:G20" si="2">G12+F13</f>
+        <v>4788</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>43775</v>
+        <v>43754</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
-        <v>1200</v>
+        <f t="shared" ref="D14:D20" si="3">(B$4*D$4+B$5*D$5)*C14</f>
+        <v>852</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>4080</v>
+        <v>4044</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f t="shared" ref="F14:F20" si="4">(G$4*I$4+G$5*I$5)*C14</f>
+        <v>1212</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>43789</v>
+        <v>43782</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>480</v>
+        <f>(B$4*(D$4+2)+B$5*(D$5+4))*C15</f>
+        <v>1616</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>4560</v>
+        <f>E14+D15</f>
+        <v>5660</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
-        <v>800</v>
+        <f>(G$4*(I$4+2)+G$5*(I$5+6))*C15</f>
+        <v>2248</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>7600</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>8248</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3">
-        <v>43866</v>
+        <v>43789</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
-        <v>2640</v>
+        <f>(B$4*(D$4+2)+B$5*(D$5+4))*C16</f>
+        <v>404</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>6064</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
-        <v>4400</v>
+        <f>(G$4*(I$4+2)+G$5*(I$5+6))*C16</f>
+        <v>562</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
+        <v>8810</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3">
-        <v>43880</v>
+        <v>43866</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>3124</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>7680</v>
+        <v>9188</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>800</v>
+        <v>4444</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>12800</v>
+        <v>13254</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3">
-        <v>43894</v>
+        <v>43880</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -841,27 +1914,27 @@
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>8160</v>
+        <v>9756</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>13600</v>
+        <v>14062</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>43907</v>
+        <v>43894</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -869,53 +1942,84 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>8640</v>
+        <v>10324</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>14400</v>
+        <v>14870</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43907</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>10892</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>808</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>15678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6">
-        <f>SUM(C10:C19)</f>
+      <c r="C21" s="6">
+        <f>SUM(C11:C20)</f>
         <v>46</v>
       </c>
-      <c r="D20" s="9">
-        <f>SUM(D10:D19)</f>
-        <v>8640</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
-        <f>SUM(F10:F19)</f>
-        <v>14400</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="D21" s="9">
+        <f>SUM(D11:D20)</f>
+        <v>10892</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
+        <f>SUM(F11:F20)</f>
+        <v>15678</v>
+      </c>
+      <c r="G21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>